--- a/Extra Work/hlr for performance glitch user.xlsx
+++ b/Extra Work/hlr for performance glitch user.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATRI ENTERPRISE\Documents\GitHub\Nirav_Tops\HLR and Testcase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NCS\Documents\GitHub\Nirav_Tops\Extra Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25E6696-4619-4D61-848F-47FA25E3B44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
     <sheet name="TestCase" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Scenario" sheetId="4" r:id="rId3"/>
+    <sheet name="Defect Report" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Defect Report'!$A$1:$M$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Test Scenario'!$A$1:$G$28</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="181">
   <si>
     <t>functionality id</t>
   </si>
@@ -565,12 +570,117 @@
   <si>
     <t>same as 19 test case id</t>
   </si>
+  <si>
+    <t>Test Summery</t>
+  </si>
+  <si>
+    <t>Defect ID</t>
+  </si>
+  <si>
+    <t>Reproduced Step</t>
+  </si>
+  <si>
+    <t>Defect Types</t>
+  </si>
+  <si>
+    <t>Defect Severity</t>
+  </si>
+  <si>
+    <t>Defect Priority</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Tester Name</t>
+  </si>
+  <si>
+    <t>Attchment</t>
+  </si>
+  <si>
+    <t>Nirav Goti</t>
+  </si>
+  <si>
+    <t>functionality,usability</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wvrIalgJ2h6UxR2XAL6qesMNL9YT_q-t/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Hn4k2hdLQ2g7DmhZPxl2HwWktv-J_eYJ/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>Functionality,Usability</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15RM5SN7RhhKhdcaeBdeLUebHKvn4yPs2/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pnxIZ2IdC91hBJjJfc7b2dYE5OSEbatB/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12P-zCY3T22Awil4Pd0Gv9snEQFfpplze/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ddOl0HSl1PR9NCvpqlzygQgdnR3NfGid/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PQg7lfD7i9BsgcXnnSw-9nJKEfU4gsEZ/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1LuzmVAWKGMwOVWLWT_zTHUz8sEMrAl2K/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yiV3X8iV9__zPzxdr7dtEOnf8674Hetl/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1L3b3EPkolJeEASv533jkHEBgq1VnhjQC/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1LNpZkJurqtZdzkfXAsIsnDL9-lq4D4dN/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZduIwLTWn9KIbNDEBh4PJ2TYadgTKRYK/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eGojmgpXdm3Jlp9XboLIslmSqGifVJES/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Gsjr_u7O975xYbPKxznTwBl8SgbDpwvx/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>functionality,database</t>
+  </si>
+  <si>
+    <t>while clicking on about button it is working properly but clicking on about another website has opened</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DbwL26elHVJX2a9gQjG5iZ2WETe121ON/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pEoLGI23P4U2gYL0PslUmoLH1BAeP_Q1/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gQVo5aKPoCBtD9Uy23_07C8kcpZUu-aO/view?usp=share_link</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,6 +735,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -658,10 +776,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -820,11 +939,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -913,23 +1053,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -965,23 +1088,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1157,10 +1263,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -1563,11 +1669,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2981,7 +3087,1569 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="47.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="46" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="47">
+        <v>1</v>
+      </c>
+      <c r="B2" s="47">
+        <v>1</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="33" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="43">
+        <v>16</v>
+      </c>
+      <c r="B3" s="43">
+        <v>3</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="33" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="43">
+        <v>19</v>
+      </c>
+      <c r="B4" s="43">
+        <v>12</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="48">
+        <v>20</v>
+      </c>
+      <c r="B5" s="43">
+        <v>13</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="48">
+        <v>21</v>
+      </c>
+      <c r="B6" s="48">
+        <v>14</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="48">
+        <v>22</v>
+      </c>
+      <c r="B7" s="48">
+        <v>15</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="48">
+        <v>23</v>
+      </c>
+      <c r="B8" s="48">
+        <v>16</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="48">
+        <v>24</v>
+      </c>
+      <c r="B9" s="48">
+        <v>17</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="48">
+        <v>25</v>
+      </c>
+      <c r="B10" s="55">
+        <v>18</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="48">
+        <v>26</v>
+      </c>
+      <c r="B11" s="55">
+        <v>19</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="48">
+        <v>27</v>
+      </c>
+      <c r="B12" s="48">
+        <v>20</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="43">
+        <v>30</v>
+      </c>
+      <c r="B13" s="43">
+        <v>23</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="43">
+        <v>31</v>
+      </c>
+      <c r="B14" s="43">
+        <v>30</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A15" s="43">
+        <v>32</v>
+      </c>
+      <c r="B15" s="43">
+        <v>31</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="48">
+        <v>34</v>
+      </c>
+      <c r="B16" s="48">
+        <v>33</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="48">
+        <v>35</v>
+      </c>
+      <c r="B17" s="48">
+        <v>34</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A18" s="48">
+        <v>36</v>
+      </c>
+      <c r="B18" s="48">
+        <v>35</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="48">
+        <v>37</v>
+      </c>
+      <c r="B19" s="48">
+        <v>36</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A20" s="48">
+        <v>38</v>
+      </c>
+      <c r="B20" s="48">
+        <v>37</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="48">
+        <v>39</v>
+      </c>
+      <c r="B21" s="48">
+        <v>38</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="48">
+        <v>40</v>
+      </c>
+      <c r="B22" s="55">
+        <v>39</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="48">
+        <v>41</v>
+      </c>
+      <c r="B23" s="55">
+        <v>40</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="168.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="48">
+        <v>42</v>
+      </c>
+      <c r="B24" s="48">
+        <v>41</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="48">
+        <v>44</v>
+      </c>
+      <c r="B25" s="43">
+        <v>43</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="48">
+        <v>45</v>
+      </c>
+      <c r="B26" s="43">
+        <v>44</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="48">
+        <v>46</v>
+      </c>
+      <c r="B27" s="43">
+        <v>45</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="48">
+        <v>47</v>
+      </c>
+      <c r="B28" s="48">
+        <v>46</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G28">
+    <filterColumn colId="2">
+      <colorFilter dxfId="1" cellColor="0"/>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="8" width="47.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" customWidth="1"/>
+    <col min="10" max="12" width="30.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="M1" s="45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="50">
+        <v>2</v>
+      </c>
+      <c r="B2" s="50">
+        <v>2</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="50">
+        <v>3</v>
+      </c>
+      <c r="B3" s="50">
+        <v>2</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="50">
+        <v>4</v>
+      </c>
+      <c r="B4" s="50">
+        <v>2</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="M4" s="47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="50">
+        <v>5</v>
+      </c>
+      <c r="B5" s="50">
+        <v>2</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L5" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="M5" s="47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="50">
+        <v>6</v>
+      </c>
+      <c r="B6" s="50">
+        <v>2</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L6" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="M6" s="47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="50">
+        <v>7</v>
+      </c>
+      <c r="B7" s="50">
+        <v>2</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L7" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="M7" s="47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="50">
+        <v>8</v>
+      </c>
+      <c r="B8" s="50">
+        <v>2</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="H8" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L8" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="M8" s="47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="50">
+        <v>9</v>
+      </c>
+      <c r="B9" s="50">
+        <v>2</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L9" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="M9" s="47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="50">
+        <v>10</v>
+      </c>
+      <c r="B10" s="50">
+        <v>2</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L10" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="M10" s="47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="50">
+        <v>11</v>
+      </c>
+      <c r="B11" s="50">
+        <v>2</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L11" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="M11" s="47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="50">
+        <v>12</v>
+      </c>
+      <c r="B12" s="50">
+        <v>2</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="H12" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K12" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L12" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="M12" s="47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="50">
+        <v>13</v>
+      </c>
+      <c r="B13" s="50">
+        <v>2</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L13" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="M13" s="47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="50">
+        <v>14</v>
+      </c>
+      <c r="B14" s="50">
+        <v>2</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="I14" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="M14" s="47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="50">
+        <v>15</v>
+      </c>
+      <c r="B15" s="50">
+        <v>2</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="I15" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="M15" s="47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="H16" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="I16" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="M16" s="47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="48">
+        <v>18</v>
+      </c>
+      <c r="B17" s="48">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="J17" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L17" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="M17" s="47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1">
+        <v>21</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="I18" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="M18" s="47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1">
+        <v>22</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="K19" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" s="50"/>
+      <c r="M19" s="47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L20" s="50"/>
+      <c r="M20" s="47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="206.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1">
+        <v>42</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="K21" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L21" s="50"/>
+      <c r="M21" s="47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M21">
+    <filterColumn colId="2">
+      <colorFilter dxfId="0" cellColor="0"/>
+    </filterColumn>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L3" r:id="rId2"/>
+    <hyperlink ref="L4" r:id="rId3"/>
+    <hyperlink ref="L5" r:id="rId4"/>
+    <hyperlink ref="L6" r:id="rId5"/>
+    <hyperlink ref="L7" r:id="rId6"/>
+    <hyperlink ref="L8" r:id="rId7"/>
+    <hyperlink ref="L9" r:id="rId8"/>
+    <hyperlink ref="L10" r:id="rId9"/>
+    <hyperlink ref="L11" r:id="rId10"/>
+    <hyperlink ref="L12" r:id="rId11"/>
+    <hyperlink ref="L13" r:id="rId12"/>
+    <hyperlink ref="L14" r:id="rId13"/>
+    <hyperlink ref="L15" r:id="rId14"/>
+    <hyperlink ref="L16" r:id="rId15"/>
+    <hyperlink ref="L17" r:id="rId16"/>
+    <hyperlink ref="L18" r:id="rId17"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId18"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Extra Work/hlr for performance glitch user.xlsx
+++ b/Extra Work/hlr for performance glitch user.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="184">
   <si>
     <t>functionality id</t>
   </si>
@@ -674,6 +674,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1gQVo5aKPoCBtD9Uy23_07C8kcpZUu-aO/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BE-DW7ce6kdPcYnsxPKpuGyS86u_oPJR/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1j-VDGXnzhtUdogdJxWvctwo9wZAd0Dz8/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16q_3HGyzHbMU3AzgQgQJ_09blbGD0ol_/view?usp=share_link</t>
   </si>
 </sst>
 </file>
@@ -780,7 +789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -940,6 +949,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1949,7 +1961,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="131.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="50">
         <v>9</v>
       </c>
@@ -2123,7 +2135,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="50">
         <v>15</v>
       </c>
@@ -3766,8 +3778,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4535,9 +4547,15 @@
       <c r="E19" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
+      <c r="F19" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="52" t="s">
+        <v>157</v>
+      </c>
       <c r="I19" s="57" t="s">
         <v>28</v>
       </c>
@@ -4547,7 +4565,9 @@
       <c r="K19" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="L19" s="50"/>
+      <c r="L19" s="59" t="s">
+        <v>181</v>
+      </c>
       <c r="M19" s="47" t="s">
         <v>152</v>
       </c>
@@ -4568,9 +4588,15 @@
       <c r="E20" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
+      <c r="F20" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="H20" s="52" t="s">
+        <v>157</v>
+      </c>
       <c r="I20" s="50" t="s">
         <v>36</v>
       </c>
@@ -4580,7 +4606,9 @@
       <c r="K20" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="L20" s="50"/>
+      <c r="L20" s="58" t="s">
+        <v>182</v>
+      </c>
       <c r="M20" s="47" t="s">
         <v>152</v>
       </c>
@@ -4601,9 +4629,15 @@
       <c r="E21" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
+      <c r="F21" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" s="52" t="s">
+        <v>157</v>
+      </c>
       <c r="I21" s="50" t="s">
         <v>47</v>
       </c>
@@ -4613,7 +4647,9 @@
       <c r="K21" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="L21" s="50"/>
+      <c r="L21" s="58" t="s">
+        <v>183</v>
+      </c>
       <c r="M21" s="47" t="s">
         <v>152</v>
       </c>
@@ -4642,9 +4678,12 @@
     <hyperlink ref="L16" r:id="rId15"/>
     <hyperlink ref="L17" r:id="rId16"/>
     <hyperlink ref="L18" r:id="rId17"/>
+    <hyperlink ref="L19" r:id="rId18"/>
+    <hyperlink ref="L20" r:id="rId19"/>
+    <hyperlink ref="L21" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId18"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId21"/>
 </worksheet>
 </file>
 
